--- a/Fulcrum_FluidTX_Trunk/src/com/proj/objectRepository/ObjectsFile_Documents.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/objectRepository/ObjectsFile_Documents.xlsx
@@ -5,7 +5,7 @@
   <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIWS\Falcrum_Trunk\src\com\proj\objectRepository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITWS_Fluid_Sprint1\Fulcrum_FluidTX_Trunk\src\com\proj\objectRepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
   <si>
     <t>textbox</t>
   </si>
@@ -199,6 +199,21 @@
   </si>
   <si>
     <t>.//*[contains(@id,'Title_')]</t>
+  </si>
+  <si>
+    <t>selectitembytextfromlist</t>
+  </si>
+  <si>
+    <t>element_enable</t>
+  </si>
+  <si>
+    <t>element_disable</t>
+  </si>
+  <si>
+    <t>element_displayed</t>
+  </si>
+  <si>
+    <t>element_notdisplayed</t>
   </si>
 </sst>
 </file>
@@ -633,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A32"/>
+  <dimension ref="A2:A37"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="A36" sqref="A36:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -797,6 +812,31 @@
     <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Fulcrum_FluidTX_Trunk/src/com/proj/objectRepository/ObjectsFile_Documents.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/objectRepository/ObjectsFile_Documents.xlsx
@@ -5,27 +5,27 @@
   <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITWS_Fluid_Sprint1\Fulcrum_FluidTX_Trunk\src\com\proj\objectRepository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Fulcrum_FluidTX_Trunk\src\com\proj\objectRepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20370" windowHeight="7980" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20370" windowHeight="7980" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Objects" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Objects_Documents" sheetId="2" r:id="rId2"/>
-    <sheet name="Objects_Transmittals_Toolbar" sheetId="3" r:id="rId3"/>
+    <sheet name="Objects_Documents_Toolbar" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Objects_Documents!$A$1:$G$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Objects_Transmittals_Toolbar!$A$1:$G$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Objects_Documents_Toolbar!$A$1:$G$10</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="101">
   <si>
     <t>textbox</t>
   </si>
@@ -165,9 +165,6 @@
     <t>.//*[text()='Forward']</t>
   </si>
   <si>
-    <t>.//*[contains(@id,'idHomePageNewDocument')]</t>
-  </si>
-  <si>
     <t>Choose a file</t>
   </si>
   <si>
@@ -214,6 +211,123 @@
   </si>
   <si>
     <t>element_notdisplayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online Word </t>
+  </si>
+  <si>
+    <t>.//*[@id='js-newdocWOPI-divWord-txt-WPQ2']</t>
+  </si>
+  <si>
+    <t>Online Document name</t>
+  </si>
+  <si>
+    <t>Document Content</t>
+  </si>
+  <si>
+    <t>Save Document</t>
+  </si>
+  <si>
+    <t>.//*[@id='qatSave-Small']</t>
+  </si>
+  <si>
+    <t>Close document</t>
+  </si>
+  <si>
+    <t>.//*[@id='WACRibbon-close']</t>
+  </si>
+  <si>
+    <t>Document type list</t>
+  </si>
+  <si>
+    <t>Create a new file -Word document</t>
+  </si>
+  <si>
+    <t>Create a new file -Excel workbook</t>
+  </si>
+  <si>
+    <t>Create a new file -PowerPoint presentation</t>
+  </si>
+  <si>
+    <t>Create a new file -OneNote notebook</t>
+  </si>
+  <si>
+    <t>Create a new file -New folder</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>PowerPoint</t>
+  </si>
+  <si>
+    <t>OneNote</t>
+  </si>
+  <si>
+    <t>Folder</t>
+  </si>
+  <si>
+    <t>.//*[@id='Hero-WPQ2']/descendant::span[text()='new document']</t>
+  </si>
+  <si>
+    <t>.//*[@title='Document Name']</t>
+  </si>
+  <si>
+    <t>.//*[@class='TextRun']</t>
+  </si>
+  <si>
+    <t>Click Upload Existing file</t>
+  </si>
+  <si>
+    <t>.//*[@class='ms-calloutLink ms-calloutLinkEnabled']</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>.//*[contains(@id,'FileLeafRef_')]</t>
+  </si>
+  <si>
+    <t>Documens_FileRibbon</t>
+  </si>
+  <si>
+    <t>.//*[text()='Files']</t>
+  </si>
+  <si>
+    <t>CheckIn</t>
+  </si>
+  <si>
+    <t>CheckOut</t>
+  </si>
+  <si>
+    <t>.//*[text()='Check Out']</t>
+  </si>
+  <si>
+    <t>.//*[text()='Check In']</t>
+  </si>
+  <si>
+    <t>ValidateCheckIn</t>
+  </si>
+  <si>
+    <t>ValidateCheckOut</t>
+  </si>
+  <si>
+    <t>.//*[text()='Publish']</t>
+  </si>
+  <si>
+    <t>VaidatePublish</t>
+  </si>
+  <si>
+    <t>Publish</t>
+  </si>
+  <si>
+    <t>Publish Comments</t>
+  </si>
+  <si>
+    <t>.//*[@name='CheckinDescription']</t>
   </si>
 </sst>
 </file>
@@ -816,27 +930,27 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -853,10 +967,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -904,7 +1018,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>
@@ -913,12 +1027,12 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>
@@ -927,12 +1041,12 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
@@ -941,12 +1055,12 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
@@ -955,12 +1069,12 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
@@ -969,12 +1083,12 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
@@ -983,62 +1097,250 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="E22" s="4"/>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="E23" s="4"/>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="E24" s="4"/>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="E25" s="4"/>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+    <row r="26" spans="1:7">
+      <c r="E26" s="4"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
+      <c r="A30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A18:G18"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31 C34 C28:C29 C3:C26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32 C35 C29:C30 C19:C27 C3:C17">
       <formula1>"id,name,xpath"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1052,7 +1354,7 @@
           <x14:formula1>
             <xm:f>Objects!$A$2:$A$39</xm:f>
           </x14:formula1>
-          <xm:sqref>D26 D28:D29 D31 D34 D3:D16</xm:sqref>
+          <xm:sqref>D27 D29:D30 D32 D35 D20:D24 D3:D17</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1064,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1140,6 +1442,104 @@
       </c>
       <c r="E4" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:9">
